--- a/biology/Zoologie/Euploea_euphon/Euploea_euphon.xlsx
+++ b/biology/Zoologie/Euploea_euphon/Euploea_euphon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea euphon est un insecte lépidoptère  de la  famille  des  Nymphalidae, de la sous-famille des Danainae et du genre Euploea. Il est endémique des Mascareignes.
 </t>
@@ -511,47 +523,53 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea euphon a été décrit par Johan Christian Fabricius en 1798 sous le nom de Papilio euphon[1].
-Sous-espèces
-Pour certains il n'y a pas de sous-espèce et Euploea euphon est endémique de l'île Maurice.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea euphon a été décrit par Johan Christian Fabricius en 1798 sous le nom de Papilio euphon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euploea_euphon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_euphon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour certains il n'y a pas de sous-espèce et Euploea euphon est endémique de l'île Maurice.
 Pour d'autres il existe plusieurs sous-espèces :
 Euploea euphon euphon présent à l'île Maurice ;
 Euploea euphon goudotii (Boisduval) ou Euploea goudotii à La Réunion ;
 Euploea euphon desjardinsii (Guerin-Meneville) ou Euploea desjardinsii à Rodrigues.
-Euploea euphon baudiniana (Godart, [1819]) serait une sous-espèce présente à Timor, mais cela reste à vérifier[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euploea_euphon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_euphon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nom vernaculaire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea euphon se nomme Mascarene Crow en anglais.
+Euploea euphon baudiniana (Godart, ) serait une sous-espèce présente à Timor, mais cela reste à vérifier.
 </t>
         </is>
       </c>
@@ -577,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand papillon marron présente aux ailes postérieures une bande submarginale de taches blanche qui se rejoignent pour former une bande submarginale blanche. Aux ailes antérieures Euploea euphon euphon n'a que quelques taches blanches en ligne et Euploea euphon goudotti n'en a pas.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea euphon se nomme Mascarene Crow en anglais.
 </t>
         </is>
       </c>
@@ -608,13 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Ficus dont  Ficus pumila et Ficus repens, les Nerium et Allemanda cathartica[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand papillon marron présente aux ailes postérieures une bande submarginale de taches blanche qui se rejoignent pour former une bande submarginale blanche. Aux ailes antérieures Euploea euphon euphon n'a que quelques taches blanches en ligne et Euploea euphon goudotti n'en a pas.
 </t>
         </is>
       </c>
@@ -640,14 +661,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euploea euphon est présent aux Mascareignes et Euploea euphon euphon est endémique de l'île Maurice[1].
-Protection
-Il est inscrit sur la liste rouge de l'IUCN, déclaré vulnérable (VU)[2].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Ficus dont  Ficus pumila et Ficus repens, les Nerium et Allemanda cathartica.
 </t>
         </is>
       </c>
@@ -673,12 +698,84 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea euphon est présent aux Mascareignes et Euploea euphon euphon est endémique de l'île Maurice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euploea_euphon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_euphon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inscrit sur la liste rouge de l'IUCN, déclaré vulnérable (VU).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euploea_euphon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_euphon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il figure sur un timbre de la poste japonaise de 1991[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il figure sur un timbre de la poste japonaise de 1991.
 </t>
         </is>
       </c>
